--- a/02_画面設計書・モックアップ/画面レイアウト.xlsx
+++ b/02_画面設計書・モックアップ/画面レイアウト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2101201\Documents\GitHub\healthApp\02_画面設計書・モックアップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\ドキュメント\GitHub\healthApp\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0736EB11-E5A9-4380-9B78-2633B1553778}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36CBFDD-DBB1-4B07-930E-DC942B0DC9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" tabRatio="784" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="10080" windowHeight="10920" tabRatio="784" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -2155,13 +2155,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>４０字</t>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>説明を入力できるテキストボックス</t>
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
@@ -2960,6 +2953,13 @@
   </si>
   <si>
     <t>画面レイアウト定義</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>１００字</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3267,7 +3267,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -3403,8 +3403,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3571,12 +3571,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -36830,7 +36827,7 @@
   </sheetPr>
   <dimension ref="A1:FL61"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -41227,7 +41224,7 @@
   </sheetPr>
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -41242,7 +41239,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="101" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B1" s="102"/>
       <c r="C1" s="102"/>
@@ -42898,7 +42895,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I55" s="29"/>
     </row>
@@ -43036,8 +43033,8 @@
   </sheetPr>
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -43449,10 +43446,10 @@
       </c>
       <c r="E47" s="113"/>
       <c r="F47" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="G47" s="111" t="s">
         <v>208</v>
-      </c>
-      <c r="G47" s="111" t="s">
-        <v>209</v>
       </c>
       <c r="H47" s="112"/>
       <c r="I47" s="113"/>
@@ -43462,7 +43459,7 @@
         <v>64</v>
       </c>
       <c r="B48" s="111" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C48" s="113"/>
       <c r="D48" s="111" t="s">
@@ -43473,7 +43470,7 @@
         <v>205</v>
       </c>
       <c r="G48" s="111" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H48" s="112"/>
       <c r="I48" s="113"/>
@@ -43483,7 +43480,7 @@
         <v>67</v>
       </c>
       <c r="B49" s="111" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C49" s="113"/>
       <c r="D49" s="111" t="s">
@@ -43491,10 +43488,10 @@
       </c>
       <c r="E49" s="113"/>
       <c r="F49" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="G49" s="111" t="s">
         <v>213</v>
-      </c>
-      <c r="G49" s="111" t="s">
-        <v>214</v>
       </c>
       <c r="H49" s="112"/>
       <c r="I49" s="113"/>
@@ -43504,7 +43501,7 @@
         <v>90</v>
       </c>
       <c r="B50" s="114" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C50" s="115"/>
       <c r="D50" s="116" t="s">
@@ -43512,20 +43509,20 @@
       </c>
       <c r="E50" s="117"/>
       <c r="F50" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="G50" s="116" t="s">
         <v>216</v>
-      </c>
-      <c r="G50" s="116" t="s">
-        <v>217</v>
       </c>
       <c r="H50" s="118"/>
       <c r="I50" s="117"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B51" s="114" t="s">
         <v>218</v>
-      </c>
-      <c r="B51" s="114" t="s">
-        <v>219</v>
       </c>
       <c r="C51" s="115"/>
       <c r="D51" s="116" t="s">
@@ -43536,49 +43533,49 @@
         <v>47</v>
       </c>
       <c r="G51" s="116" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H51" s="118"/>
       <c r="I51" s="117"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="121" t="s">
-        <v>267</v>
+      <c r="A52" s="63" t="s">
+        <v>266</v>
       </c>
       <c r="B52" s="107" t="s">
-        <v>269</v>
-      </c>
-      <c r="C52" s="122"/>
+        <v>268</v>
+      </c>
+      <c r="C52" s="121"/>
       <c r="D52" s="111" t="s">
         <v>68</v>
       </c>
       <c r="E52" s="112"/>
       <c r="F52" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="G52" s="111" t="s">
         <v>271</v>
-      </c>
-      <c r="G52" s="111" t="s">
-        <v>272</v>
       </c>
       <c r="H52" s="112"/>
       <c r="I52" s="113"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="121" t="s">
-        <v>268</v>
+      <c r="A53" s="63" t="s">
+        <v>267</v>
       </c>
       <c r="B53" s="107" t="s">
-        <v>270</v>
-      </c>
-      <c r="C53" s="122"/>
+        <v>269</v>
+      </c>
+      <c r="C53" s="121"/>
       <c r="D53" s="111" t="s">
         <v>68</v>
       </c>
       <c r="E53" s="112"/>
       <c r="F53" s="62" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G53" s="111" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H53" s="112"/>
       <c r="I53" s="113"/>
@@ -43614,7 +43611,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I58" s="29"/>
     </row>
@@ -43628,14 +43625,14 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I60" s="29"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="28"/>
       <c r="D61" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I61" s="29"/>
     </row>
@@ -43645,7 +43642,7 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I62" s="29"/>
     </row>
@@ -43869,7 +43866,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D5" s="99"/>
       <c r="E5" s="99"/>
@@ -43886,7 +43883,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="98" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D6" s="99"/>
       <c r="E6" s="99"/>
@@ -43903,7 +43900,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
@@ -44118,7 +44115,7 @@
         <v>80</v>
       </c>
       <c r="B44" s="119" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C44" s="119"/>
       <c r="D44" s="119" t="s">
@@ -44129,7 +44126,7 @@
         <v>47</v>
       </c>
       <c r="G44" s="120" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H44" s="120"/>
       <c r="I44" s="120"/>
@@ -44242,7 +44239,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I56" s="29"/>
     </row>
@@ -44383,7 +44380,7 @@
   </sheetPr>
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
@@ -44476,7 +44473,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D5" s="99"/>
       <c r="E5" s="99"/>
@@ -44493,7 +44490,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="98" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D6" s="99"/>
       <c r="E6" s="99"/>
@@ -44510,7 +44507,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
@@ -44729,7 +44726,7 @@
       </c>
       <c r="C44" s="108"/>
       <c r="D44" s="111" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E44" s="113"/>
       <c r="F44" s="52" t="s">
@@ -44746,7 +44743,7 @@
         <v>52</v>
       </c>
       <c r="B45" s="107" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C45" s="108"/>
       <c r="D45" s="109" t="s">
@@ -44754,10 +44751,10 @@
       </c>
       <c r="E45" s="110"/>
       <c r="F45" s="53" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G45" s="111" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H45" s="112"/>
       <c r="I45" s="113"/>
@@ -44767,7 +44764,7 @@
         <v>57</v>
       </c>
       <c r="B46" s="107" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C46" s="108"/>
       <c r="D46" s="109" t="s">
@@ -44775,10 +44772,10 @@
       </c>
       <c r="E46" s="110"/>
       <c r="F46" s="52" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G46" s="111" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H46" s="112"/>
       <c r="I46" s="113"/>
@@ -44788,7 +44785,7 @@
         <v>61</v>
       </c>
       <c r="B47" s="107" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C47" s="108"/>
       <c r="D47" s="111" t="s">
@@ -44796,10 +44793,10 @@
       </c>
       <c r="E47" s="113"/>
       <c r="F47" s="52" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G47" s="111" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H47" s="112"/>
       <c r="I47" s="113"/>
@@ -44809,7 +44806,7 @@
         <v>64</v>
       </c>
       <c r="B48" s="111" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C48" s="113"/>
       <c r="D48" s="111" t="s">
@@ -44820,28 +44817,28 @@
         <v>47</v>
       </c>
       <c r="G48" s="111" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H48" s="112"/>
       <c r="I48" s="113"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B49" s="114" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C49" s="115"/>
       <c r="D49" s="116" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E49" s="117"/>
       <c r="F49" s="50" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G49" s="116" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H49" s="118"/>
       <c r="I49" s="117"/>
@@ -44888,7 +44885,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I55" s="29"/>
     </row>
@@ -44902,7 +44899,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I57" s="29"/>
     </row>
@@ -44916,7 +44913,7 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I59" s="29"/>
     </row>
@@ -44930,7 +44927,7 @@
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I61" s="29"/>
     </row>
@@ -45040,7 +45037,7 @@
   </sheetPr>
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -45711,7 +45708,7 @@
   </sheetPr>
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+    <sheetView topLeftCell="B10" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -45802,7 +45799,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D5" s="99"/>
       <c r="E5" s="99"/>
@@ -45819,7 +45816,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="98" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D6" s="99"/>
       <c r="E6" s="99"/>
@@ -45836,7 +45833,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
@@ -46072,7 +46069,7 @@
         <v>52</v>
       </c>
       <c r="B45" s="107" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C45" s="108"/>
       <c r="D45" s="111" t="s">
@@ -46080,10 +46077,10 @@
       </c>
       <c r="E45" s="113"/>
       <c r="F45" s="53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G45" s="111" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H45" s="112"/>
       <c r="I45" s="113"/>
@@ -46093,7 +46090,7 @@
         <v>57</v>
       </c>
       <c r="B46" s="107" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C46" s="108"/>
       <c r="D46" s="109" t="s">
@@ -46101,10 +46098,10 @@
       </c>
       <c r="E46" s="110"/>
       <c r="F46" s="52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G46" s="111" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H46" s="112"/>
       <c r="I46" s="113"/>
@@ -46114,7 +46111,7 @@
         <v>61</v>
       </c>
       <c r="B47" s="107" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C47" s="108"/>
       <c r="D47" s="109" t="s">
@@ -46122,10 +46119,10 @@
       </c>
       <c r="E47" s="110"/>
       <c r="F47" s="52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G47" s="111" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H47" s="112"/>
       <c r="I47" s="113"/>
@@ -46135,7 +46132,7 @@
         <v>64</v>
       </c>
       <c r="B48" s="111" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C48" s="113"/>
       <c r="D48" s="111" t="s">
@@ -46143,10 +46140,10 @@
       </c>
       <c r="E48" s="113"/>
       <c r="F48" s="50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G48" s="111" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H48" s="112"/>
       <c r="I48" s="113"/>
@@ -46156,7 +46153,7 @@
         <v>67</v>
       </c>
       <c r="B49" s="114" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C49" s="115"/>
       <c r="D49" s="116" t="s">
@@ -46167,28 +46164,28 @@
         <v>47</v>
       </c>
       <c r="G49" s="116" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H49" s="118"/>
       <c r="I49" s="117"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B50" s="114" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C50" s="115"/>
       <c r="D50" s="116" t="s">
         <v>68</v>
       </c>
       <c r="E50" s="117"/>
-      <c r="F50" s="63" t="s">
-        <v>271</v>
+      <c r="F50" s="52" t="s">
+        <v>270</v>
       </c>
       <c r="G50" s="116" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H50" s="118"/>
       <c r="I50" s="117"/>
@@ -46224,7 +46221,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I55" s="29"/>
     </row>
@@ -46238,7 +46235,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I57" s="29"/>
     </row>
@@ -46252,14 +46249,14 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I59" s="29"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="28"/>
       <c r="D60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I60" s="29"/>
     </row>
@@ -46489,7 +46486,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="98" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D6" s="99"/>
       <c r="E6" s="99"/>
@@ -46508,7 +46505,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
@@ -48368,7 +48365,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="98" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D6" s="99"/>
       <c r="E6" s="99"/>
@@ -48385,7 +48382,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
